--- a/entrada.xlsx
+++ b/entrada.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aptek\Desktop\MJV\Timesheet\- Arquivos\Modelos por mês\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luizorta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD59CF45-9664-DE4F-8EEF-64B0950511B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="90B7" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="4420" yWindow="620" windowWidth="27040" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HORAS NORMAIS" sheetId="13" r:id="rId1"/>
@@ -20,12 +21,20 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'HORAS NORMAIS'!$A$1:$G$41</definedName>
     <definedName name="MESES">'HORAS NORMAIS'!$Y$2:$Y$12</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t>Nº PT</t>
   </si>
@@ -252,17 +261,20 @@
   <si>
     <t>De 01 a 29 de fevereiro de 2020</t>
   </si>
+  <si>
+    <t>SÁBADO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="166" formatCode="ddd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,7 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,10 +800,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -848,23 +860,9 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_RFQ_Planilhas de Cotacao 2" xfId="1"/>
+    <cellStyle name="Normal_RFQ_Planilhas de Cotacao 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -912,7 +910,7 @@
         <xdr:cNvPr id="3552" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E00D0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E00D0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +989,7 @@
         <xdr:cNvPr id="2072" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,7 +1051,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1091,7 +1089,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1126,6 +1124,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1161,9 +1176,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1336,41 +1368,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="B1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:G8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" style="48" customWidth="1"/>
-    <col min="8" max="9" width="16.140625" style="1" customWidth="1"/>
-    <col min="10" max="19" width="9.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="32.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="23" width="9.140625" style="1" customWidth="1"/>
-    <col min="24" max="26" width="13.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="29" max="30" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.83203125" style="48" customWidth="1"/>
+    <col min="8" max="9" width="16.1640625" style="1" customWidth="1"/>
+    <col min="10" max="19" width="9.1640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="32.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="9.1640625" style="1" customWidth="1"/>
+    <col min="24" max="26" width="13.5" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="29" max="30" width="9.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5" style="1" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="9.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5" style="1" hidden="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="15">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B1" s="66"/>
       <c r="C1" s="24"/>
       <c r="AA1" s="38" t="s">
@@ -1383,18 +1415,18 @@
       <c r="AD1" s="38"/>
       <c r="AE1" s="39">
         <f>VLOOKUP(G5,AA1:AB12,2,0)</f>
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="AF1" s="38">
         <f>IFERROR(WEEKDAY(AE1,2),"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG1" s="39">
         <f t="array" aca="1" ref="AG1" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>43983</v>
-      </c>
-    </row>
-    <row r="2" spans="2:33" ht="15">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" s="67"/>
       <c r="C2" s="32"/>
       <c r="T2" s="36" t="s">
@@ -1414,18 +1446,18 @@
       <c r="AD2" s="38"/>
       <c r="AE2" s="39">
         <f>IFERROR(IF(MONTH(AE1+1)=MONTH(AE1),AE1+1,""),"")</f>
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="AF2" s="38">
         <f t="shared" ref="AF2:AF31" si="0">IFERROR(WEEKDAY(AE2,2),"")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG2" s="39">
         <f t="array" aca="1" ref="AG2" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>43984</v>
-      </c>
-    </row>
-    <row r="3" spans="2:33" ht="15">
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="60" t="s">
         <v>6</v>
       </c>
@@ -1451,18 +1483,18 @@
       <c r="AD3" s="38"/>
       <c r="AE3" s="39">
         <f t="shared" ref="AE3:AE31" si="1">IFERROR(IF(MONTH(AE2+1)=MONTH(AE2),AE2+1,""),"")</f>
-        <v>43985</v>
+        <v>44015</v>
       </c>
       <c r="AF3" s="38">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG3" s="39">
         <f t="array" aca="1" ref="AG3" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>43985</v>
-      </c>
-    </row>
-    <row r="4" spans="2:33" ht="15">
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="T4" s="36" t="s">
         <v>21</v>
       </c>
@@ -1480,18 +1512,18 @@
       <c r="AD4" s="41"/>
       <c r="AE4" s="39">
         <f t="shared" si="1"/>
-        <v>43986</v>
+        <v>44016</v>
       </c>
       <c r="AF4" s="38">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG4" s="39">
         <f t="array" aca="1" ref="AG4" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>43986</v>
-      </c>
-    </row>
-    <row r="5" spans="2:33" s="3" customFormat="1" ht="15">
+        <v>44016</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1502,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1525,18 +1557,18 @@
       <c r="AD5" s="41"/>
       <c r="AE5" s="39">
         <f t="shared" si="1"/>
-        <v>43987</v>
+        <v>44017</v>
       </c>
       <c r="AF5" s="38">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG5" s="39">
         <f t="array" aca="1" ref="AG5" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>43987</v>
-      </c>
-    </row>
-    <row r="6" spans="2:33" s="3" customFormat="1" ht="15">
+        <v>44018</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1580,7 @@
       <c r="F6" s="59"/>
       <c r="G6" s="51" t="str">
         <f>VLOOKUP(G5,T:U,2,0)</f>
-        <v>De 01 a 30 de junho de 2020</v>
+        <v>De 01 a 31 de julho de 2020</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1571,18 +1603,18 @@
       <c r="AD6" s="38"/>
       <c r="AE6" s="39">
         <f t="shared" si="1"/>
-        <v>43988</v>
+        <v>44018</v>
       </c>
       <c r="AF6" s="38">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="39">
         <f t="array" aca="1" ref="AG6" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>43988</v>
-      </c>
-    </row>
-    <row r="7" spans="2:33" ht="15">
+        <v>44019</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="T7" s="36" t="s">
         <v>24</v>
       </c>
@@ -1600,18 +1632,18 @@
       <c r="AD7" s="38"/>
       <c r="AE7" s="39">
         <f t="shared" si="1"/>
-        <v>43989</v>
+        <v>44019</v>
       </c>
       <c r="AF7" s="38">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AG7" s="39">
         <f t="array" aca="1" ref="AG7" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>43990</v>
-      </c>
-    </row>
-    <row r="8" spans="2:33" ht="15">
+        <v>44020</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="68" t="s">
         <v>7</v>
       </c>
@@ -1639,18 +1671,18 @@
       <c r="AD8" s="38"/>
       <c r="AE8" s="39">
         <f t="shared" si="1"/>
-        <v>43990</v>
+        <v>44020</v>
       </c>
       <c r="AF8" s="38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG8" s="39">
         <f t="array" aca="1" ref="AG8" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>43991</v>
-      </c>
-    </row>
-    <row r="9" spans="2:33" ht="15">
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="T9" s="36" t="s">
         <v>26</v>
       </c>
@@ -1668,18 +1700,18 @@
       <c r="AD9" s="38"/>
       <c r="AE9" s="39">
         <f t="shared" si="1"/>
-        <v>43991</v>
+        <v>44021</v>
       </c>
       <c r="AF9" s="38">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG9" s="39">
         <f t="array" aca="1" ref="AG9" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>43992</v>
-      </c>
-    </row>
-    <row r="10" spans="2:33" ht="38.25">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" ht="34" x14ac:dyDescent="0.25">
       <c r="B10" s="34" t="s">
         <v>4</v>
       </c>
@@ -1716,22 +1748,22 @@
       <c r="AD10" s="38"/>
       <c r="AE10" s="39">
         <f t="shared" si="1"/>
-        <v>43992</v>
+        <v>44022</v>
       </c>
       <c r="AF10" s="38">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG10" s="39">
         <f t="array" aca="1" ref="AG10" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>43993</v>
-      </c>
-    </row>
-    <row r="11" spans="2:33" ht="18.75" customHeight="1">
+        <v>44023</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="43"/>
       <c r="C11" s="44">
         <f t="shared" ref="C11:C32" ca="1" si="2">+AG1</f>
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="46"/>
@@ -1755,22 +1787,22 @@
       <c r="AD11" s="38"/>
       <c r="AE11" s="39">
         <f>IFERROR(IF(MONTH(AE10+1)=MONTH(AE10),AE10+1,""),"")</f>
-        <v>43993</v>
+        <v>44023</v>
       </c>
       <c r="AF11" s="38">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG11" s="39">
         <f t="array" aca="1" ref="AG11" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>43994</v>
-      </c>
-    </row>
-    <row r="12" spans="2:33" ht="18.75" customHeight="1">
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="43"/>
       <c r="C12" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="46"/>
@@ -1794,22 +1826,22 @@
       <c r="AD12" s="38"/>
       <c r="AE12" s="39">
         <f>IFERROR(IF(MONTH(AE11+1)=MONTH(AE11),AE11+1,""),"")</f>
-        <v>43994</v>
+        <v>44024</v>
       </c>
       <c r="AF12" s="38">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG12" s="39">
         <f t="array" aca="1" ref="AG12" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>43995</v>
-      </c>
-    </row>
-    <row r="13" spans="2:33" ht="18.75" customHeight="1">
+        <v>44026</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="43"/>
       <c r="C13" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>43985</v>
+        <v>44015</v>
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="46"/>
@@ -1829,27 +1861,29 @@
       <c r="AD13" s="38"/>
       <c r="AE13" s="39">
         <f t="shared" si="1"/>
-        <v>43995</v>
+        <v>44025</v>
       </c>
       <c r="AF13" s="38">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AG13" s="39">
         <f t="array" aca="1" ref="AG13" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>43997</v>
-      </c>
-    </row>
-    <row r="14" spans="2:33" ht="18.75" customHeight="1">
-      <c r="B14" s="43"/>
-      <c r="C14" s="44">
+        <v>44027</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="53"/>
+      <c r="C14" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43986</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+        <v>44016</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57" t="s">
+        <v>58</v>
+      </c>
       <c r="X14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="38"/>
@@ -1858,22 +1892,22 @@
       <c r="AD14" s="38"/>
       <c r="AE14" s="39">
         <f t="shared" si="1"/>
-        <v>43996</v>
+        <v>44026</v>
       </c>
       <c r="AF14" s="38">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AG14" s="39">
         <f t="array" aca="1" ref="AG14" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>43998</v>
-      </c>
-    </row>
-    <row r="15" spans="2:33" ht="18.75" customHeight="1">
+        <v>44028</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="43"/>
       <c r="C15" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="46"/>
@@ -1887,27 +1921,27 @@
       <c r="AD15" s="38"/>
       <c r="AE15" s="39">
         <f t="shared" si="1"/>
-        <v>43997</v>
+        <v>44027</v>
       </c>
       <c r="AF15" s="38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG15" s="39">
         <f t="array" aca="1" ref="AG15" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>43999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:33" ht="18.75" customHeight="1">
-      <c r="B16" s="53"/>
-      <c r="C16" s="54">
+        <v>44029</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="43"/>
+      <c r="C16" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>43988</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
+        <v>44019</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
       <c r="X16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="38"/>
@@ -1916,22 +1950,22 @@
       <c r="AD16" s="38"/>
       <c r="AE16" s="39">
         <f t="shared" si="1"/>
-        <v>43998</v>
+        <v>44028</v>
       </c>
       <c r="AF16" s="38">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG16" s="39">
         <f t="array" aca="1" ref="AG16" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:33" ht="18.75" customHeight="1">
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="43"/>
       <c r="C17" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>43990</v>
+        <v>44020</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="46"/>
@@ -1945,22 +1979,22 @@
       <c r="AD17" s="38"/>
       <c r="AE17" s="39">
         <f t="shared" si="1"/>
-        <v>43999</v>
+        <v>44029</v>
       </c>
       <c r="AF17" s="38">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG17" s="39">
         <f t="array" aca="1" ref="AG17" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>44001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:33" ht="18.75" customHeight="1">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="43"/>
       <c r="C18" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>43991</v>
+        <v>44021</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="46"/>
@@ -1974,22 +2008,22 @@
       <c r="AD18" s="38"/>
       <c r="AE18" s="39">
         <f t="shared" si="1"/>
-        <v>44000</v>
+        <v>44030</v>
       </c>
       <c r="AF18" s="38">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG18" s="39">
         <f t="array" aca="1" ref="AG18" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>44002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:33" ht="18.75" customHeight="1">
+        <v>44033</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="43"/>
       <c r="C19" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>43992</v>
+        <v>44022</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="46"/>
@@ -2003,27 +2037,29 @@
       <c r="AD19" s="38"/>
       <c r="AE19" s="39">
         <f t="shared" si="1"/>
-        <v>44001</v>
+        <v>44031</v>
       </c>
       <c r="AF19" s="38">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG19" s="39">
         <f t="array" aca="1" ref="AG19" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>44004</v>
-      </c>
-    </row>
-    <row r="20" spans="2:33" ht="18.75" customHeight="1">
-      <c r="B20" s="43"/>
-      <c r="C20" s="44">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="53"/>
+      <c r="C20" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43993</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
+        <v>44023</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57" t="s">
+        <v>58</v>
+      </c>
       <c r="X20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="38"/>
@@ -2032,22 +2068,22 @@
       <c r="AD20" s="38"/>
       <c r="AE20" s="39">
         <f t="shared" si="1"/>
-        <v>44002</v>
+        <v>44032</v>
       </c>
       <c r="AF20" s="38">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AG20" s="39">
         <f t="array" aca="1" ref="AG20" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>44005</v>
-      </c>
-    </row>
-    <row r="21" spans="2:33" ht="18.75" customHeight="1">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="43"/>
       <c r="C21" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="46"/>
@@ -2061,27 +2097,27 @@
       <c r="AD21" s="38"/>
       <c r="AE21" s="39">
         <f t="shared" si="1"/>
-        <v>44003</v>
+        <v>44033</v>
       </c>
       <c r="AF21" s="38">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AG21" s="39">
         <f t="array" aca="1" ref="AG21" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>44006</v>
-      </c>
-    </row>
-    <row r="22" spans="2:33" ht="18.75" customHeight="1">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>43995</v>
-      </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
+        <v>44026</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
       <c r="X22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="38"/>
@@ -2090,22 +2126,22 @@
       <c r="AD22" s="38"/>
       <c r="AE22" s="39">
         <f t="shared" si="1"/>
-        <v>44004</v>
+        <v>44034</v>
       </c>
       <c r="AF22" s="38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG22" s="39">
         <f t="array" aca="1" ref="AG22" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>44007</v>
-      </c>
-    </row>
-    <row r="23" spans="2:33" ht="18.75" customHeight="1">
+        <v>44037</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="43"/>
       <c r="C23" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>43997</v>
+        <v>44027</v>
       </c>
       <c r="D23" s="45"/>
       <c r="E23" s="46"/>
@@ -2119,22 +2155,22 @@
       <c r="AD23" s="38"/>
       <c r="AE23" s="39">
         <f t="shared" si="1"/>
-        <v>44005</v>
+        <v>44035</v>
       </c>
       <c r="AF23" s="38">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG23" s="39">
         <f t="array" aca="1" ref="AG23" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>44008</v>
-      </c>
-    </row>
-    <row r="24" spans="2:33" ht="18.75" customHeight="1">
+        <v>44039</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="43"/>
       <c r="C24" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>43998</v>
+        <v>44028</v>
       </c>
       <c r="D24" s="45"/>
       <c r="E24" s="46"/>
@@ -2148,22 +2184,22 @@
       <c r="AD24" s="38"/>
       <c r="AE24" s="39">
         <f t="shared" si="1"/>
-        <v>44006</v>
+        <v>44036</v>
       </c>
       <c r="AF24" s="38">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG24" s="39">
         <f t="array" aca="1" ref="AG24" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>44009</v>
-      </c>
-    </row>
-    <row r="25" spans="2:33" ht="18.75" customHeight="1">
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="43"/>
       <c r="C25" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>43999</v>
+        <v>44029</v>
       </c>
       <c r="D25" s="45"/>
       <c r="E25" s="46"/>
@@ -2177,27 +2213,29 @@
       <c r="AD25" s="38"/>
       <c r="AE25" s="39">
         <f t="shared" si="1"/>
-        <v>44007</v>
+        <v>44037</v>
       </c>
       <c r="AF25" s="38">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG25" s="39">
         <f t="array" aca="1" ref="AG25" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>44011</v>
-      </c>
-    </row>
-    <row r="26" spans="2:33" ht="18.75" customHeight="1">
-      <c r="B26" s="43"/>
-      <c r="C26" s="44">
+        <v>44041</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="53"/>
+      <c r="C26" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44000</v>
-      </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
+        <v>44030</v>
+      </c>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="57" t="s">
+        <v>58</v>
+      </c>
       <c r="X26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="38"/>
@@ -2206,22 +2244,22 @@
       <c r="AD26" s="38"/>
       <c r="AE26" s="39">
         <f t="shared" si="1"/>
-        <v>44008</v>
+        <v>44038</v>
       </c>
       <c r="AF26" s="38">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG26" s="39">
         <f t="array" aca="1" ref="AG26" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v>44012</v>
-      </c>
-    </row>
-    <row r="27" spans="2:33" ht="18.75" customHeight="1">
+        <v>44042</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
       <c r="C27" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
@@ -2235,27 +2273,27 @@
       <c r="AD27" s="38"/>
       <c r="AE27" s="39">
         <f t="shared" si="1"/>
-        <v>44009</v>
+        <v>44039</v>
       </c>
       <c r="AF27" s="38">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AG27" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="39">
         <f t="array" aca="1" ref="AG27" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:33" ht="18.75" customHeight="1">
-      <c r="B28" s="53"/>
-      <c r="C28" s="54">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="43"/>
+      <c r="C28" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>44002</v>
-      </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="57"/>
+        <v>44033</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
       <c r="X28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="38"/>
@@ -2264,22 +2302,22 @@
       <c r="AD28" s="38"/>
       <c r="AE28" s="39">
         <f t="shared" si="1"/>
-        <v>44010</v>
+        <v>44040</v>
       </c>
       <c r="AF28" s="38">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AG28" s="39" t="str">
         <f t="array" aca="1" ref="AG28" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:33" ht="18.75" customHeight="1">
+    <row r="29" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="43"/>
       <c r="C29" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>44004</v>
+        <v>44034</v>
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="46"/>
@@ -2293,22 +2331,22 @@
       <c r="AD29" s="38"/>
       <c r="AE29" s="39">
         <f t="shared" si="1"/>
-        <v>44011</v>
+        <v>44041</v>
       </c>
       <c r="AF29" s="38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG29" s="39" t="str">
         <f t="array" aca="1" ref="AG29" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:33" ht="18.75" customHeight="1">
+    <row r="30" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="43"/>
       <c r="C30" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>44005</v>
+        <v>44035</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="46"/>
@@ -2322,22 +2360,22 @@
       <c r="AD30" s="38"/>
       <c r="AE30" s="39">
         <f t="shared" si="1"/>
-        <v>44012</v>
+        <v>44042</v>
       </c>
       <c r="AF30" s="38">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG30" s="39" t="str">
         <f t="array" aca="1" ref="AG30" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:33" ht="18.75" customHeight="1">
+    <row r="31" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="43"/>
       <c r="C31" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>44006</v>
+        <v>44036</v>
       </c>
       <c r="D31" s="45"/>
       <c r="E31" s="46"/>
@@ -2349,29 +2387,31 @@
       <c r="AB31" s="38"/>
       <c r="AC31" s="38"/>
       <c r="AD31" s="38"/>
-      <c r="AE31" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AF31" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AE31" s="39">
+        <f t="shared" si="1"/>
+        <v>44043</v>
+      </c>
+      <c r="AF31" s="38">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="AG31" s="39" t="str">
         <f t="array" aca="1" ref="AG31" ca="1">IFERROR(INDIRECT("AE"&amp;SMALL(IF($AF$1:$AF$31&lt;=6,ROW($AF$1:$AF$31)),ROW())),"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:33" ht="18.75" customHeight="1">
-      <c r="B32" s="43"/>
-      <c r="C32" s="44">
+    <row r="32" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="53"/>
+      <c r="C32" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44007</v>
-      </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
+        <v>44037</v>
+      </c>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57" t="s">
+        <v>58</v>
+      </c>
       <c r="X32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="38"/>
@@ -2382,11 +2422,11 @@
       <c r="AF32" s="38"/>
       <c r="AG32" s="38"/>
     </row>
-    <row r="33" spans="2:33" ht="18.75" customHeight="1">
+    <row r="33" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="43"/>
       <c r="C33" s="44">
         <f ca="1">+AG23</f>
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="D33" s="45"/>
       <c r="E33" s="46"/>
@@ -2402,16 +2442,16 @@
       <c r="AF33" s="38"/>
       <c r="AG33" s="38"/>
     </row>
-    <row r="34" spans="2:33" ht="18.75" customHeight="1">
-      <c r="B34" s="53"/>
-      <c r="C34" s="54">
+    <row r="34" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="43"/>
+      <c r="C34" s="44">
         <f t="shared" ref="C34:C38" ca="1" si="3">+AG24</f>
-        <v>44009</v>
-      </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="57"/>
+        <v>44040</v>
+      </c>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
       <c r="X34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="38"/>
@@ -2422,11 +2462,11 @@
       <c r="AF34" s="38"/>
       <c r="AG34" s="38"/>
     </row>
-    <row r="35" spans="2:33" ht="18.75" customHeight="1">
+    <row r="35" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="43"/>
       <c r="C35" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>44011</v>
+        <v>44041</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="46"/>
@@ -2442,11 +2482,11 @@
       <c r="AF35" s="38"/>
       <c r="AG35" s="38"/>
     </row>
-    <row r="36" spans="2:33" ht="18.75" customHeight="1">
+    <row r="36" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="43"/>
       <c r="C36" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>44012</v>
+        <v>44042</v>
       </c>
       <c r="D36" s="45"/>
       <c r="E36" s="46"/>
@@ -2462,11 +2502,11 @@
       <c r="AF36" s="38"/>
       <c r="AG36" s="38"/>
     </row>
-    <row r="37" spans="2:33" ht="18.75" customHeight="1">
+    <row r="37" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="43"/>
-      <c r="C37" s="44" t="str">
+      <c r="C37" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>44043</v>
       </c>
       <c r="D37" s="45"/>
       <c r="E37" s="46"/>
@@ -2482,7 +2522,7 @@
       <c r="AF37" s="38"/>
       <c r="AG37" s="38"/>
     </row>
-    <row r="38" spans="2:33" ht="18.75" customHeight="1">
+    <row r="38" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="43"/>
       <c r="C38" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2502,7 +2542,7 @@
       <c r="AF38" s="38"/>
       <c r="AG38" s="38"/>
     </row>
-    <row r="39" spans="2:33" ht="15">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AA39" s="38"/>
       <c r="AB39" s="38"/>
       <c r="AC39" s="38"/>
@@ -2511,7 +2551,7 @@
       <c r="AF39" s="38"/>
       <c r="AG39" s="38"/>
     </row>
-    <row r="40" spans="2:33" ht="15">
+    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>5</v>
       </c>
@@ -2531,7 +2571,7 @@
       <c r="AF40" s="38"/>
       <c r="AG40" s="38"/>
     </row>
-    <row r="41" spans="2:33" ht="15">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -2544,7 +2584,7 @@
       <c r="AF41" s="38"/>
       <c r="AG41" s="38"/>
     </row>
-    <row r="42" spans="2:33" ht="15">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AA42" s="38"/>
       <c r="AB42" s="38"/>
       <c r="AC42" s="38"/>
@@ -2553,7 +2593,7 @@
       <c r="AF42" s="38"/>
       <c r="AG42" s="38"/>
     </row>
-    <row r="43" spans="2:33" ht="15">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AA43" s="38"/>
       <c r="AB43" s="38"/>
       <c r="AC43" s="38"/>
@@ -2562,7 +2602,7 @@
       <c r="AF43" s="38"/>
       <c r="AG43" s="38"/>
     </row>
-    <row r="44" spans="2:33" ht="15">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AA44" s="38"/>
       <c r="AB44" s="38"/>
       <c r="AC44" s="38"/>
@@ -2571,7 +2611,7 @@
       <c r="AF44" s="38"/>
       <c r="AG44" s="38"/>
     </row>
-    <row r="45" spans="2:33" ht="15">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AA45" s="38"/>
       <c r="AB45" s="38"/>
       <c r="AC45" s="38"/>
@@ -2580,7 +2620,7 @@
       <c r="AF45" s="38"/>
       <c r="AG45" s="38"/>
     </row>
-    <row r="46" spans="2:33" ht="15">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AA46" s="38"/>
       <c r="AB46" s="38"/>
       <c r="AC46" s="38"/>
@@ -2604,7 +2644,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$T$2:$T$13</formula1>
     </dataValidation>
   </dataValidations>
@@ -2616,42 +2656,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="B1:P54"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:N7"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="17" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="17" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="16" customWidth="1"/>
     <col min="6" max="6" width="9" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="16" customWidth="1"/>
     <col min="8" max="8" width="10" style="16" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10" style="16" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="17"/>
+    <col min="12" max="12" width="9.5" style="16" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.1640625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="17"/>
     <col min="16" max="16" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="17"/>
+    <col min="17" max="16384" width="9.1640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="73"/>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="73"/>
     </row>
-    <row r="3" spans="2:14" s="1" customFormat="1">
+    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="71" t="s">
         <v>6</v>
       </c>
@@ -2668,8 +2708,8 @@
       <c r="M3" s="72"/>
       <c r="N3" s="72"/>
     </row>
-    <row r="4" spans="2:14" s="1" customFormat="1"/>
-    <row r="5" spans="2:14" s="3" customFormat="1">
+    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="42" t="s">
         <v>0</v>
       </c>
@@ -2679,19 +2719,19 @@
         <v>1</v>
       </c>
       <c r="G5" s="13">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="13">
-        <v>44012</v>
+        <v>44042</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="2:14" s="1" customFormat="1"/>
-    <row r="7" spans="2:14" s="1" customFormat="1">
+    <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="87" t="s">
         <v>7</v>
       </c>
@@ -2710,7 +2750,7 @@
       <c r="M7" s="75"/>
       <c r="N7" s="75"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="88" t="s">
         <v>32</v>
       </c>
@@ -2726,7 +2766,7 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>38</v>
       </c>
@@ -2742,7 +2782,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="76" t="s">
         <v>33</v>
       </c>
@@ -2759,7 +2799,7 @@
       <c r="M10" s="76"/>
       <c r="N10" s="76"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="89" t="s">
         <v>15</v>
       </c>
@@ -2786,7 +2826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="90"/>
       <c r="C13" s="92"/>
       <c r="D13" s="25" t="s">
@@ -2821,17 +2861,17 @@
       </c>
       <c r="N13" s="81"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="30">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="26">
-        <f t="shared" ref="F14:F44" si="0">E14-D14</f>
+        <f t="shared" ref="F14:F43" si="0">E14-D14</f>
         <v>0</v>
       </c>
       <c r="G14" s="19"/>
@@ -2852,13 +2892,13 @@
       </c>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="30">
         <f>B14+1</f>
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -2884,13 +2924,13 @@
       </c>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="30">
         <f>B15+1</f>
-        <v>43985</v>
+        <v>44015</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -2916,13 +2956,13 @@
       </c>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="30">
         <f t="shared" ref="B17:B44" si="4">B16+1</f>
-        <v>43986</v>
+        <v>44016</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -2948,13 +2988,13 @@
       </c>
       <c r="N17" s="20"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="30">
         <f t="shared" si="4"/>
-        <v>43987</v>
+        <v>44017</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -2980,13 +3020,13 @@
       </c>
       <c r="N18" s="20"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="30">
         <f t="shared" si="4"/>
-        <v>43988</v>
+        <v>44018</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -3012,13 +3052,13 @@
       </c>
       <c r="N19" s="20"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="30">
         <f t="shared" si="4"/>
-        <v>43989</v>
+        <v>44019</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -3044,13 +3084,13 @@
       </c>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="30">
         <f t="shared" si="4"/>
-        <v>43990</v>
+        <v>44020</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -3076,13 +3116,13 @@
       </c>
       <c r="N21" s="20"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="30">
         <f t="shared" si="4"/>
-        <v>43991</v>
+        <v>44021</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -3108,13 +3148,13 @@
       </c>
       <c r="N22" s="20"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="30">
         <f t="shared" si="4"/>
-        <v>43992</v>
+        <v>44022</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -3140,13 +3180,13 @@
       </c>
       <c r="N23" s="20"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="30">
         <f t="shared" si="4"/>
-        <v>43993</v>
+        <v>44023</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -3172,13 +3212,13 @@
       </c>
       <c r="N24" s="20"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="30">
         <f t="shared" si="4"/>
-        <v>43994</v>
+        <v>44024</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -3204,13 +3244,13 @@
       </c>
       <c r="N25" s="20"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="30">
         <f t="shared" si="4"/>
-        <v>43995</v>
+        <v>44025</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -3236,13 +3276,13 @@
       </c>
       <c r="N26" s="20"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="30">
         <f t="shared" si="4"/>
-        <v>43996</v>
+        <v>44026</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -3268,13 +3308,13 @@
       </c>
       <c r="N27" s="20"/>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="30">
         <f t="shared" si="4"/>
-        <v>43997</v>
+        <v>44027</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -3301,16 +3341,16 @@
       <c r="N28" s="20"/>
       <c r="P28" s="17">
         <f>WEEKDAY(B28)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="30">
         <f t="shared" si="4"/>
-        <v>43998</v>
+        <v>44028</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -3336,13 +3376,13 @@
       </c>
       <c r="N29" s="20"/>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="30">
         <f t="shared" si="4"/>
-        <v>43999</v>
+        <v>44029</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -3368,13 +3408,13 @@
       </c>
       <c r="N30" s="20"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="30">
         <f t="shared" si="4"/>
-        <v>44000</v>
+        <v>44030</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3400,13 +3440,13 @@
       </c>
       <c r="N31" s="20"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="30">
         <f t="shared" si="4"/>
-        <v>44001</v>
+        <v>44031</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -3432,13 +3472,13 @@
       </c>
       <c r="N32" s="20"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="30">
         <f t="shared" si="4"/>
-        <v>44002</v>
+        <v>44032</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3464,13 +3504,13 @@
       </c>
       <c r="N33" s="20"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="30">
         <f t="shared" si="4"/>
-        <v>44003</v>
+        <v>44033</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
@@ -3496,13 +3536,13 @@
       </c>
       <c r="N34" s="20"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="30">
         <f t="shared" si="4"/>
-        <v>44004</v>
+        <v>44034</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
@@ -3528,13 +3568,13 @@
       </c>
       <c r="N35" s="20"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="30">
         <f t="shared" si="4"/>
-        <v>44005</v>
+        <v>44035</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -3560,13 +3600,13 @@
       </c>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="30">
         <f t="shared" si="4"/>
-        <v>44006</v>
+        <v>44036</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
@@ -3592,13 +3632,13 @@
       </c>
       <c r="N37" s="20"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="30">
         <f t="shared" si="4"/>
-        <v>44007</v>
+        <v>44037</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
@@ -3624,13 +3664,13 @@
       </c>
       <c r="N38" s="20"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="30">
         <f t="shared" si="4"/>
-        <v>44008</v>
+        <v>44038</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
@@ -3656,13 +3696,13 @@
       </c>
       <c r="N39" s="20"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="30">
         <f t="shared" si="4"/>
-        <v>44009</v>
+        <v>44039</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
@@ -3688,13 +3728,13 @@
       </c>
       <c r="N40" s="20"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="30">
         <f t="shared" si="4"/>
-        <v>44010</v>
+        <v>44040</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
@@ -3720,13 +3760,13 @@
       </c>
       <c r="N41" s="20"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="30">
         <f t="shared" si="4"/>
-        <v>44011</v>
+        <v>44041</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -3752,13 +3792,13 @@
       </c>
       <c r="N42" s="20"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="30">
         <f t="shared" si="4"/>
-        <v>44012</v>
+        <v>44042</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
@@ -3784,13 +3824,18 @@
       </c>
       <c r="N43" s="20"/>
     </row>
-    <row r="44" spans="2:14">
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="30">
+        <f t="shared" si="4"/>
+        <v>44043</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="F44" s="26">
-        <f t="shared" si="0"/>
+        <f>E44-D44</f>
         <v>0</v>
       </c>
       <c r="G44" s="18"/>
@@ -3811,7 +3856,7 @@
       </c>
       <c r="N44" s="20"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="83" t="s">
         <v>14</v>
       </c>
@@ -3830,14 +3875,14 @@
       </c>
       <c r="J45" s="82"/>
       <c r="K45" s="82"/>
-      <c r="L45" s="26">
-        <f>SUM(L14:L44)</f>
-        <v>0</v>
+      <c r="L45" s="26" t="e">
+        <f>SUM(H48L14:L44)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M45" s="28"/>
       <c r="N45" s="11"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
@@ -3847,32 +3892,32 @@
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
-      <c r="M46" s="29">
+      <c r="M46" s="29" t="e">
         <f>SUM(F45,I45,L45)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="N46" s="12"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D47" s="22"/>
     </row>
-    <row r="50" spans="4:5">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D50" s="22"/>
       <c r="E50" s="23"/>
     </row>
-    <row r="51" spans="4:5">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D51" s="22"/>
       <c r="E51" s="23"/>
     </row>
-    <row r="52" spans="4:5">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D52" s="22"/>
       <c r="E52" s="23"/>
     </row>
-    <row r="53" spans="4:5">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D53" s="22"/>
       <c r="E53" s="23"/>
     </row>
-    <row r="54" spans="4:5">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E54" s="22"/>
     </row>
   </sheetData>
@@ -3897,10 +3942,10 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C14:C44">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
